--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b631a87b7c0e187/Documents/VSCode/score_prediction_tool/Frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="11_68B48E941C65D00F6235547658A4163FBB38DE75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7DBD8A-1A57-4DD1-BC3F-10FE2140AD0F}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="11_68B48E941C65D00F6235547658A4163FBB38DE75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9DF759-362E-40DB-BA49-7CE5FA87A697}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="gamesheet_03-08-2024" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Team</t>
   </si>
@@ -208,6 +207,12 @@
   </si>
   <si>
     <t>AG?</t>
+  </si>
+  <si>
+    <t>BTTS?</t>
+  </si>
+  <si>
+    <t>BTTS p?</t>
   </si>
 </sst>
 </file>
@@ -228,7 +233,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,15 +289,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +622,7 @@
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +653,14 @@
       <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -673,8 +694,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -708,8 +735,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -743,8 +776,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -778,8 +817,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -813,8 +858,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -848,8 +899,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -883,8 +940,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -918,8 +981,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -953,8 +1022,14 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -988,8 +1063,14 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1023,8 +1104,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1058,8 +1145,14 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1093,8 +1186,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1128,8 +1227,14 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1163,8 +1268,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1198,8 +1309,14 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1233,8 +1350,14 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1268,8 +1391,14 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1303,8 +1432,14 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1338,8 +1473,14 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,8 +1514,14 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1408,8 +1555,14 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1443,8 +1596,14 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1478,8 +1637,14 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1513,8 +1678,14 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1548,8 +1719,14 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1583,8 +1760,14 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1618,8 +1801,14 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1653,8 +1842,14 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1688,8 +1883,14 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1723,8 +1924,14 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1758,8 +1965,14 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1793,8 +2006,14 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1828,8 +2047,14 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1863,8 +2088,14 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1898,8 +2129,14 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1933,8 +2170,14 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1968,8 +2211,14 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2003,8 +2252,14 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2038,8 +2293,14 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2073,8 +2334,14 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2108,8 +2375,14 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2143,8 +2416,14 @@
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2178,8 +2457,14 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2213,8 +2498,14 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2248,8 +2539,14 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2283,8 +2580,14 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2318,8 +2621,14 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C50">
         <f t="shared" ref="C50:F50" si="0">SUM(C2:C49)</f>
         <v>73</v>
@@ -2353,11 +2662,19 @@
         <v>12</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50" si="4">SUM(K2:K49)</f>
+        <f t="shared" ref="K50:M50" si="4">SUM(K2:K49)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" s="5">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C51">
         <f>C50/48</f>
         <v>1.5208333333333333</v>
@@ -2371,7 +2688,7 @@
         <v>12.5</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="E51:K51" si="5">F50/48</f>
+        <f t="shared" ref="F51:G51" si="5">F50/48</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="G51">
@@ -2383,7 +2700,7 @@
         <v>47.916666666666671</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:K51" si="6">100*(I50/48)</f>
+        <f t="shared" ref="I51:M51" si="6">100*(I50/48)</f>
         <v>35.416666666666671</v>
       </c>
       <c r="J51">
@@ -2393,6 +2710,14 @@
       <c r="K51">
         <f t="shared" si="6"/>
         <v>35.416666666666671</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>47.916666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b631a87b7c0e187/Documents/VSCode/score_prediction_tool/Frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_682798993C9B1B924E8B5F4DABEA08ADD9F80073" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB12E12-D5F7-43FC-ADA6-11CF1E790EA1}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D88911ED2C2C1C97AA363CA9248D3A43B87B0FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0FE070B-33B0-462C-9E5A-25D531D950CD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gamesheet_03-08-2024" sheetId="1" r:id="rId1"/>
     <sheet name="gamesheet_03-14-2024" sheetId="2" r:id="rId2"/>
+    <sheet name="gamesheet_03-28-2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="157">
   <si>
     <t>Team</t>
   </si>
@@ -339,19 +340,177 @@
   </si>
   <si>
     <t>Atletico Madrid v Barcelona</t>
+  </si>
+  <si>
+    <t>Newcastle United v West Ham</t>
+  </si>
+  <si>
+    <t>Bournemouth v Everton</t>
+  </si>
+  <si>
+    <t>BTTS (12)</t>
+  </si>
+  <si>
+    <t>Chelsea v Burnley</t>
+  </si>
+  <si>
+    <t>Nottingham Forest v Crystal Palace</t>
+  </si>
+  <si>
+    <t>Sheffield United v Fulham</t>
+  </si>
+  <si>
+    <t>Tottenham v Luton</t>
+  </si>
+  <si>
+    <t>Aston Villa v Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Cagey (13)</t>
+  </si>
+  <si>
+    <t>Brentford v Manchester United</t>
+  </si>
+  <si>
+    <t>Liverpool v Brighton</t>
+  </si>
+  <si>
+    <t>Manchester City v Arsenal</t>
+  </si>
+  <si>
+    <t>Lille v Lens</t>
+  </si>
+  <si>
+    <t>Metz v Monaco</t>
+  </si>
+  <si>
+    <t>Lyon v Reims</t>
+  </si>
+  <si>
+    <t>Lorient v Brest</t>
+  </si>
+  <si>
+    <t>Clermont Foot v Toulouse</t>
+  </si>
+  <si>
+    <t>Le Havre v Montpellier</t>
+  </si>
+  <si>
+    <t>Nice v Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg v Rennes</t>
+  </si>
+  <si>
+    <t>Marseille v Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen v Hoffenheim</t>
+  </si>
+  <si>
+    <t>Borussia M.Gladbach v Freiburg</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt v Union Berlin</t>
+  </si>
+  <si>
+    <t>RasenBallsport Leipzig v Mainz 05</t>
+  </si>
+  <si>
+    <t>Werder Bremen v Wolfsburg</t>
+  </si>
+  <si>
+    <t>Bayern Munich v Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Augsburg v FC Cologne</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart v FC Heidenheim</t>
+  </si>
+  <si>
+    <t>Bochum v Darmstadt</t>
+  </si>
+  <si>
+    <t>Napoli v Atalanta</t>
+  </si>
+  <si>
+    <t>Genoa v Frosinone</t>
+  </si>
+  <si>
+    <t>Torino v Monza</t>
+  </si>
+  <si>
+    <t>Lazio v Juventus</t>
+  </si>
+  <si>
+    <t>Fiorentina v AC Milan</t>
+  </si>
+  <si>
+    <t>Cagey (11)</t>
+  </si>
+  <si>
+    <t>Bologna v Salernitana</t>
+  </si>
+  <si>
+    <t>Cagliari v Verona</t>
+  </si>
+  <si>
+    <t>Sassuolo v Udinese</t>
+  </si>
+  <si>
+    <t>Lecce v Roma</t>
+  </si>
+  <si>
+    <t>Inter v Empoli</t>
+  </si>
+  <si>
+    <t>Cadiz v Granada</t>
+  </si>
+  <si>
+    <t>Getafe v Sevilla</t>
+  </si>
+  <si>
+    <t>Almeria v Osasuna</t>
+  </si>
+  <si>
+    <t>Valencia v Mallorca</t>
+  </si>
+  <si>
+    <t>Barcelona v Las Palmas</t>
+  </si>
+  <si>
+    <t>Celta Vigo v Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Girona v Real Betis</t>
+  </si>
+  <si>
+    <t>Alaves v Real Sociedad</t>
+  </si>
+  <si>
+    <t>Real Madrid v Athletic Club</t>
+  </si>
+  <si>
+    <t>Villarreal v Atletico Madrid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -378,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -416,11 +575,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,7 +603,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1587,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2635,4 +2812,1144 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-08-2024" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-14-2024" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-28-2024" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-03-2024" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4271,4 +4272,1380 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal v Luton</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brentford v Brighton</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manchester City v Aston Villa</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liverpool v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chelsea v Manchester United</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crystal Palace v Manchester City</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aston Villa v Brentford</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Everton v Burnley</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fulham v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Luton v Bournemouth</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v West Ham</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brighton v Arsenal</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Manchester United v Liverpool</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sheffield United v Chelsea</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tottenham v Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lille v Marseille</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lens v Le Havre</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain v Clermont Foot</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brest v Metz</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montpellier v Lorient</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Reims v Nice</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Toulouse v Strasbourg</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Monaco v Rennes</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nantes v Lyon</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt v Werder Bremen</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FC Cologne v Bochum</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Freiburg v RasenBallsport Leipzig</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mainz 05 v Darmstadt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FC Heidenheim v Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Union Berlin v Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund v VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hoffenheim v Augsburg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Wolfsburg v Borussia M.Gladbach</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Salernitana v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AC Milan v Lecce</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Roma v Lazio</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Empoli v Torino</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Frosinone v Bologna</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Monza v Napoli</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cagliari v Atalanta</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Verona v Genoa</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Juventus v Fiorentina</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Udinese v Inter</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Granada v Valencia</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-14-2024" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-28-2024" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-03-2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-04-2024" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5648,4 +5649,1290 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Liverpool v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chelsea v Manchester United</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Crystal Palace v Manchester City</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aston Villa v Brentford</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Everton v Burnley</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fulham v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Luton v Bournemouth</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v West Ham</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brighton v Arsenal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Manchester United v Liverpool</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sheffield United v Chelsea</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tottenham v Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lille v Marseille</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lens v Le Havre</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain v Clermont Foot</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brest v Metz</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Montpellier v Lorient</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Reims v Nice</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Toulouse v Strasbourg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Monaco v Rennes</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nantes v Lyon</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt v Werder Bremen</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FC Cologne v Bochum</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Freiburg v RasenBallsport Leipzig</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mainz 05 v Darmstadt</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FC Heidenheim v Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Union Berlin v Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund v VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hoffenheim v Augsburg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Wolfsburg v Borussia M.Gladbach</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Salernitana v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AC Milan v Lecce</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Roma v Lazio</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Empoli v Torino</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Frosinone v Bologna</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Monza v Napoli</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cagliari v Atalanta</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Verona v Genoa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Juventus v Fiorentina</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Udinese v Inter</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Granada v Valencia</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-14-2024" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-28-2024" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-04-2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-05-2024" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5581,4 +5582,1290 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Liverpool v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chelsea v Manchester United</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Crystal Palace v Manchester City</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aston Villa v Brentford</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Everton v Burnley</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fulham v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Luton v Bournemouth</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v West Ham</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brighton v Arsenal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Manchester United v Liverpool</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sheffield United v Chelsea</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tottenham v Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lille v Marseille</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lens v Le Havre</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain v Clermont Foot</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brest v Metz</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Montpellier v Lorient</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Reims v Nice</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Toulouse v Strasbourg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Monaco v Rennes</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nantes v Lyon</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt v Werder Bremen</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FC Cologne v Bochum</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Freiburg v RasenBallsport Leipzig</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mainz 05 v Darmstadt</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FC Heidenheim v Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Union Berlin v Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund v VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hoffenheim v Augsburg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Wolfsburg v Borussia M.Gladbach</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Salernitana v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AC Milan v Lecce</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Roma v Lazio</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Empoli v Torino</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Frosinone v Bologna</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Monza v Napoli</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cagliari v Atalanta</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Verona v Genoa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Juventus v Fiorentina</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Udinese v Inter</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Granada v Valencia</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_03-28-2024" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-04-2024" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-05-2024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-22-2024" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6801,4 +6802,1770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal v Chelsea</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v Bournemouth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Crystal Palace v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Everton v Liverpool</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Manchester United v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brighton v Manchester City</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>West Ham v Liverpool</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fulham v Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manchester United v Burnley</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Newcastle United v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v Luton</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Everton v Brentford</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aston Villa v Chelsea</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bournemouth v Brighton</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tottenham v Arsenal</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nottingham Forest v Manchester City</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lorient v Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Marseille v Nice</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Monaco v Lille</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montpellier v Nantes</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain v Le Havre</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Metz v Lille</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Clermont Foot v Reims</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Lorient v Toulouse</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strasbourg v Nice</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rennes v Brest</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lyon v Monaco</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Marseille v Lens</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bochum v Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bayern Munich v Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Augsburg v Werder Bremen</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Freiburg v Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RasenBallsport Leipzig v Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen v VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Borussia M.Gladbach v Union Berlin</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mainz 05 v FC Cologne</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Darmstadt v FC Heidenheim</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AC Milan v Inter</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Frosinone v Salernitana</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Inter v Torino</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lecce v Monza</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Juventus v AC Milan</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Lazio v Verona</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bologna v Udinese</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Atalanta v Empoli</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Napoli v Roma</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fiorentina v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sevilla v Mallorca</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Real Sociedad v Real Madrid</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Las Palmas v Girona</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Almeria v Getafe</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Alaves v Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Atletico Madrid v Athletic Club</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cadiz v Mallorca</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Granada v Osasuna</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Villarreal v Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Real Betis v Sevilla</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-04-2024" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-05-2024" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-22-2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-26-2024" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8568,4 +8569,1500 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>West Ham v Liverpool</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fulham v Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manchester United v Burnley</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Newcastle United v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v Luton</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Everton v Brentford</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aston Villa v Chelsea</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bournemouth v Brighton</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tottenham v Arsenal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nottingham Forest v Manchester City</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montpellier v Nantes</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain v Le Havre</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Metz v Lille</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clermont Foot v Reims</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lorient v Toulouse</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strasbourg v Nice</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rennes v Brest</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lyon v Monaco</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Marseille v Lens</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bochum v Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bayern Munich v Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Augsburg v Werder Bremen</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Freiburg v Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RasenBallsport Leipzig v Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen v VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Borussia M.Gladbach v Union Berlin</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mainz 05 v FC Cologne</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Darmstadt v FC Heidenheim</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Frosinone v Salernitana</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Inter v Torino</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lecce v Monza</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Juventus v AC Milan</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lazio v Verona</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bologna v Udinese</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Atalanta v Empoli</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Napoli v Roma</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fiorentina v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Genoa v Cagliari</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Real Sociedad v Real Madrid</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Las Palmas v Girona</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Almeria v Getafe</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Alaves v Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Atletico Madrid v Athletic Club</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Cadiz v Mallorca</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Granada v Osasuna</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Villarreal v Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Real Betis v Sevilla</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Barcelona v Valencia</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-05-2024" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-22-2024" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-26-2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-03-2024" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -10065,4 +10066,1440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Luton v Everton</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arsenal v Bournemouth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brentford v Fulham</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Burnley v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sheffield United v Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Manchester City v Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brighton v Aston Villa</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chelsea v West Ham</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liverpool v Tottenham</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Crystal Palace v Manchester United</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Toulouse v Montpellier</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lens v Lorient</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le Havre v Strasbourg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Monaco v Clermont Foot</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Metz v Rennes</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brest v Nantes</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lille v Lyon</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hoffenheim v RasenBallsport Leipzig</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund v Augsburg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart v Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Werder Bremen v Borussia M.Gladbach</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wolfsburg v Darmstadt</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FC Cologne v Freiburg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Union Berlin v Bochum</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt v Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FC Heidenheim v Mainz 05</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Torino v Bologna</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Monza v Lazio</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sassuolo v Inter</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cagliari v Lecce</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Empoli v Frosinone</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Verona v Fiorentina</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AC Milan v Genoa</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Roma v Juventus</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Salernitana v Atalanta</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Udinese v Napoli</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Getafe v Athletic Club</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Real Sociedad v Las Palmas</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Real Madrid v Cadiz</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Girona v Barcelona</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mallorca v Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Osasuna v Real Betis</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Celta Vigo v Villarreal</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Valencia v Alaves</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano v Almeria</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sevilla v Granada</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-22-2024" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-26-2024" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-03-2024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-10-2024" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -11502,4 +11503,1680 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fulham v Manchester City</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bournemouth v Brentford</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Everton v Sheffield United</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Newcastle United v Brighton</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tottenham v Burnley</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>West Ham v Luton</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers v Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nottingham Forest v Chelsea</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manchester United v Arsenal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aston Villa v Liverpool</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tottenham v Manchester City</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brighton v Chelsea</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Manchester United v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brest v Reims</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nice v Le Havre</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clermont Foot v Lyon</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Marseille v Lorient</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Montpellier v Monaco</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nantes v Lille</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain v Toulouse</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rennes v Lens</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strasbourg v Metz</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nice v Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Reims v Marseille</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Frosinone v Inter</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Napoli v Bologna</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AC Milan v Cagliari</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lazio v Empoli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Genoa v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Verona v Torino</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Juventus v Salernitana</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Atalanta v Roma</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lecce v Udinese</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fiorentina v Monza</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Alaves v Girona</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mallorca v Las Palmas</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Villarreal v Sevilla</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Granada v Real Madrid</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Athletic Club v Osasuna</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cadiz v Getafe</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Atletico Madrid v Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Valencia v Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Real Betis v Almeria</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Barcelona v Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Osasuna v Mallorca</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Real Madrid v Alaves</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Girona v Villarreal</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano v Granada</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sevilla v Cadiz</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Celta Vigo v Athletic Club</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Getafe v Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Las Palmas v Real Betis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Almeria v Barcelona</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Real Sociedad v Valencia</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_04-26-2024" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-03-2024" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-10-2024" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-17-2024" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1583,6 +1584,1502 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal v Everton</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brentford v Newcastle United</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brighton v Manchester United</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Burnley v Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chelsea v Bournemouth</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crystal Palace v Aston Villa</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liverpool v Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Luton v Fulham</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manchester City v West Ham</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sheffield United v Tottenham</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le Havre v Marseille</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lens v Montpellier</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lille v Nice</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lorient v Clermont Foot</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lyon v Strasbourg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Metz v Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Monaco v Nantes</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Reims v Rennes</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Toulouse v Brest</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund v Darmstadt</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt v RasenBallsport Leipzig</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FC Heidenheim v FC Cologne</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hoffenheim v Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen v Augsburg</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart v Borussia M.Gladbach</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Union Berlin v Freiburg</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Werder Bremen v Bochum</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wolfsburg v Mainz 05</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fiorentina v Napoli</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lecce v Atalanta</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Torino v AC Milan</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sassuolo v Cagliari</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Monza v Frosinone</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Udinese v Empoli</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Inter v Lazio</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Roma v Genoa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Salernitana v Verona</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bologna v Juventus</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Alaves v Getafe</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Athletic Club v Sevilla</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Atletico Madrid v Osasuna</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cadiz v Las Palmas</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Barcelona v Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Granada v Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mallorca v Almeria</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Real Betis v Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Valencia v Girona</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Villarreal v Real Madrid</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-03-2024" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-10-2024" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-17-2024" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-24-2024" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3080,6 +3081,632 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Genoa v Bologna</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Juventus v Monza</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AC Milan v Salernitana</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atalanta v Torino</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Napoli v Lecce</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Empoli v Roma</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frosinone v Udinese</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Verona v Inter</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lazio v Sassuolo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Girona v Granada</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Osasuna v Villarreal</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Real Sociedad v Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Almeria v Cadiz</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano v Athletic Club</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Real Madrid v Real Betis</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Getafe v Mallorca</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Celta Vigo v Valencia</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Las Palmas v Alaves</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sevilla v Barcelona</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-10-2024" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-17-2024" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-24-2024" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-31-2024" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3707,6 +3708,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -18,6 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-17-2024" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-24-2024" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-31-2024" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-07-2024" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3764,6 +3765,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-24-2024" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-31-2024" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-07-2024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-14-2024" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3821,6 +3822,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_05-31-2024" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-07-2024" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-14-2024" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-21-2024" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3878,6 +3879,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Frontend/scorepredictions.xlsx
+++ b/Frontend/scorepredictions.xlsx
@@ -21,6 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-07-2024" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-14-2024" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-21-2024" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gamesheet_06-28-2024" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3935,6 +3936,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Home Score</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Away Score</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>BTTS</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Home</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>First Goal Away</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
